--- a/en/examples/OverallSprintPlan_ProjectExample.xlsx
+++ b/en/examples/OverallSprintPlan_ProjectExample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16C0A5-C2E7-4A2D-943E-374C06E5B14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31F9872-2B23-4D7D-8EC2-37C526B53A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,15 +207,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Creation of repository for configuration management</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Build and release settings</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Version 1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repository</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6190,7 +6190,7 @@
       <c r="P23" s="65"/>
       <c r="Q23" s="65"/>
       <c r="R23" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" s="65"/>
       <c r="T23" s="65"/>
@@ -8441,7 +8441,7 @@
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="60"/>
       <c r="C50" s="109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="22"/>
@@ -8463,7 +8463,7 @@
     <row r="51" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="61"/>
       <c r="C51" s="110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="111"/>
       <c r="E51" s="42"/>
